--- a/Session_5/DBMS_basics.xlsx
+++ b/Session_5/DBMS_basics.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khemr\Downloads\MySQL\EdYoda_Sessions\MySQL-Notes\Session_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF026B6-A63A-460C-8E7E-6453BF5F7FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389FAC41-9090-4BE7-9975-6032AD9B82CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{F6F54D5C-D920-4212-B4B5-16982C159AB3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Primary Key" sheetId="1" r:id="rId1"/>
-    <sheet name="Super Key" sheetId="2" r:id="rId2"/>
-    <sheet name="Candidate keys" sheetId="3" r:id="rId3"/>
+    <sheet name="Super Key" sheetId="2" r:id="rId1"/>
+    <sheet name="Candidate keys" sheetId="3" r:id="rId2"/>
+    <sheet name="Primary Key" sheetId="1" r:id="rId3"/>
     <sheet name="Foreign Key" sheetId="4" r:id="rId4"/>
     <sheet name="Composite Key" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Primary Key</t>
   </si>
@@ -130,6 +130,54 @@
   </si>
   <si>
     <t>Jon</t>
+  </si>
+  <si>
+    <t>{Emp_SSN}</t>
+  </si>
+  <si>
+    <t>{Emp_Number}</t>
+  </si>
+  <si>
+    <t>{Emp_SSN, Emp_Number}</t>
+  </si>
+  <si>
+    <t>{Emp_SSN, Emp_Name}</t>
+  </si>
+  <si>
+    <t>{Emp_SSN, Emp_Number, Emp_Name}</t>
+  </si>
+  <si>
+    <t>{Emp_Number, Emp_Name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {Emp_Id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {Emp_Number}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {Emp_Id, Emp_Number}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {Emp_Id, Emp_Name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {Emp_Id, Emp_Number, Emp_Name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {Emp_Number, Emp_Name}</t>
+  </si>
+  <si>
+    <t>No redundant attributes</t>
+  </si>
+  <si>
+    <t>candidate key</t>
+  </si>
+  <si>
+    <t>primary_key</t>
+  </si>
+  <si>
+    <t>alternate /secondary</t>
   </si>
 </sst>
 </file>
@@ -431,16 +479,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>209067</xdr:colOff>
+      <xdr:colOff>117627</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>123581</xdr:rowOff>
+      <xdr:rowOff>176921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -463,7 +511,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="548640"/>
+          <a:off x="518160" y="601980"/>
           <a:ext cx="3866667" cy="1952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -870,17 +918,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0A1EF5-538B-49BF-83D7-A806B2815C5F}">
+  <dimension ref="A2:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7412523-BD40-49FB-B236-94D8AB0C229E}">
+  <dimension ref="A2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBB1B9E-6A8C-4125-9469-806379886B23}">
   <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.5546875" customWidth="1"/>
     <col min="11" max="11" width="35.5546875" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" customWidth="1"/>
@@ -1020,72 +1218,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0A1EF5-538B-49BF-83D7-A806B2815C5F}">
-  <dimension ref="A2:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7412523-BD40-49FB-B236-94D8AB0C229E}">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1215,7 +1347,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
